--- a/DynamicChartRange/ChartSample.xlsx
+++ b/DynamicChartRange/ChartSample.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.kaneko\Documents\github\ExcelVBA_Tips\DynamicChartRange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C5E10-8596-4D16-ABBB-7FDF69E20F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C024CEF-0B9E-47F0-A18D-6FC0C046649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{122E5DBE-ED37-4107-A91B-33F142140B19}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{122E5DBE-ED37-4107-A91B-33F142140B19}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル1" sheetId="2" r:id="rId1"/>
     <sheet name="サンプル2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Chart1_ラベル範囲全体" localSheetId="0">サンプル1!$B:$B</definedName>
-    <definedName name="Chart1_開始位置" localSheetId="0">MATCH(サンプル1!サンプル1_範囲開始,サンプル1!Chart1_ラベル範囲全体,0)</definedName>
-    <definedName name="Chart1_表示件数" localSheetId="0">MATCH(サンプル1!サンプル1_範囲終了,サンプル1!Chart1_ラベル範囲全体,0) - MATCH(サンプル1!サンプル1_範囲開始,サンプル1!Chart1_ラベル範囲全体,0) +1</definedName>
-    <definedName name="サンプル1_範囲開始" localSheetId="0">サンプル1!$C$3</definedName>
-    <definedName name="サンプル1_範囲終了" localSheetId="0">サンプル1!$C$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -13581,8 +13574,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -13996,8 +13989,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
